--- a/target/classes/com/sn/resources/TestData.xlsx
+++ b/target/classes/com/sn/resources/TestData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Shortdescription</t>
   </si>
@@ -962,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -973,10 +973,9 @@
     <col min="1" max="1" width="14.6328125" customWidth="1"/>
     <col min="2" max="2" width="17.54296875" customWidth="1"/>
     <col min="3" max="3" width="20.08984375" customWidth="1"/>
-    <col min="4" max="4" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -986,20 +985,14 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1005,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/target/classes/com/sn/resources/TestData.xlsx
+++ b/target/classes/com/sn/resources/TestData.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="19420" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18900" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="VIPIncidentData" sheetId="3" r:id="rId1"/>
     <sheet name="ResolvedDada" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,6 +672,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -718,7 +722,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -753,7 +757,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -965,17 +969,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -986,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -1008,15 +1012,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
-    <col min="4" max="4" width="28.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1030,7 +1034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
